--- a/cu-annotations.xlsx
+++ b/cu-annotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="26860" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="af-annotations" sheetId="1" r:id="rId1"/>
@@ -1081,8 +1081,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1624,19 +1627,19 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="51.9134615384615" customWidth="1"/>
+    <col min="2" max="2" width="51.9134615384615" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1644,11 +1647,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="353" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="185" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="269" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="68" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="101" spans="1:2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="409.5" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="135" spans="1:2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="34" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="34" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="34" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="101" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="34" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1756,11 +1759,11 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="84" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="118" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="84" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="135" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1796,11 +1799,11 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="387" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="68" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="34" spans="1:2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="68" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="68" spans="1:2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="236" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="269" spans="1:2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1860,11 +1863,11 @@
       <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="51" spans="1:2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="185" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1884,11 +1887,11 @@
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="68" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="51" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="101" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="84" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
